--- a/프로젝트/파이썬/코스페이시스 가입/코스페이시스 가입.xlsx
+++ b/프로젝트/파이썬/코스페이시스 가입/코스페이시스 가입.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\코스페이시스 가입\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388552E0-49E5-42E2-8CAB-16A827799B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779EDC2A-A6F6-42BA-8E59-87B25E2AA43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="3375" windowWidth="28665" windowHeight="19200" xr2:uid="{F7F6DF23-D72A-43C5-A98A-3372CF7C26D7}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{08E5F285-6D75-4EAE-AB2E-9A9BC40C517D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,48 +36,225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+  <si>
+    <t>코드</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
   <si>
     <t>sw123456</t>
   </si>
   <si>
-    <t>김명호</t>
-  </si>
-  <si>
-    <t>BK863</t>
-  </si>
-  <si>
-    <t>정보규</t>
-  </si>
-  <si>
-    <t>swct1903</t>
-  </si>
-  <si>
-    <t>정민규</t>
-  </si>
-  <si>
-    <t>swct1904</t>
-  </si>
-  <si>
-    <t>우하윤</t>
-  </si>
-  <si>
-    <t>swct1905</t>
-  </si>
-  <si>
-    <t>김재영</t>
-  </si>
-  <si>
-    <t>swct1906</t>
-  </si>
-  <si>
-    <t>정재환</t>
-  </si>
-  <si>
-    <t>swct1907</t>
-  </si>
-  <si>
-    <t>19반</t>
+    <t>김수아</t>
+  </si>
+  <si>
+    <t>3E2C8</t>
+  </si>
+  <si>
+    <t>김명준</t>
+  </si>
+  <si>
+    <t>swcm2201</t>
+  </si>
+  <si>
+    <t>제현지</t>
+  </si>
+  <si>
+    <t>swcm2202</t>
+  </si>
+  <si>
+    <t>김태우</t>
+  </si>
+  <si>
+    <t>swcm2203</t>
+  </si>
+  <si>
+    <t>구나율</t>
+  </si>
+  <si>
+    <t>swcm2204</t>
+  </si>
+  <si>
+    <t>박찬민</t>
+  </si>
+  <si>
+    <t>swcm2205</t>
+  </si>
+  <si>
+    <t>탁지원</t>
+  </si>
+  <si>
+    <t>swcm2206</t>
+  </si>
+  <si>
+    <t>안현진</t>
+  </si>
+  <si>
+    <t>swcm2207</t>
+  </si>
+  <si>
+    <t>9AH7B</t>
+  </si>
+  <si>
+    <t>swcm2301</t>
+  </si>
+  <si>
+    <t>김승호</t>
+  </si>
+  <si>
+    <t>swcm2302</t>
+  </si>
+  <si>
+    <t>김기연</t>
+  </si>
+  <si>
+    <t>swcm2303</t>
+  </si>
+  <si>
+    <t>임지훈</t>
+  </si>
+  <si>
+    <t>swcm2304</t>
+  </si>
+  <si>
+    <t>swcm2305</t>
+  </si>
+  <si>
+    <t>윤선우</t>
+  </si>
+  <si>
+    <t>swcm2306</t>
+  </si>
+  <si>
+    <t>곽현우</t>
+  </si>
+  <si>
+    <t>swcm2307</t>
+  </si>
+  <si>
+    <t>4FLBZ</t>
+  </si>
+  <si>
+    <t>김연우</t>
+  </si>
+  <si>
+    <t>swcm2401</t>
+  </si>
+  <si>
+    <t>권현준</t>
+  </si>
+  <si>
+    <t>swcm2402</t>
+  </si>
+  <si>
+    <t>권도현</t>
+  </si>
+  <si>
+    <t>swcm2403</t>
+  </si>
+  <si>
+    <t>한주형</t>
+  </si>
+  <si>
+    <t>swcm2404</t>
+  </si>
+  <si>
+    <t>정강현</t>
+  </si>
+  <si>
+    <t>swcm2405</t>
+  </si>
+  <si>
+    <t>김민표</t>
+  </si>
+  <si>
+    <t>swcm2406</t>
+  </si>
+  <si>
+    <t>PM7C2</t>
+  </si>
+  <si>
+    <t>깅동현</t>
+  </si>
+  <si>
+    <t>swcm2501</t>
+  </si>
+  <si>
+    <t>정민재</t>
+  </si>
+  <si>
+    <t>swcm2502</t>
+  </si>
+  <si>
+    <t>김승현</t>
+  </si>
+  <si>
+    <t>swcm2503</t>
+  </si>
+  <si>
+    <t>문성분</t>
+  </si>
+  <si>
+    <t>swcm2504</t>
+  </si>
+  <si>
+    <t>성시찬</t>
+  </si>
+  <si>
+    <t>swcm2505</t>
+  </si>
+  <si>
+    <t>윤석현</t>
+  </si>
+  <si>
+    <t>swcm2506</t>
+  </si>
+  <si>
+    <t>권서현</t>
+  </si>
+  <si>
+    <t>swcm2507</t>
+  </si>
+  <si>
+    <t>분반</t>
+  </si>
+  <si>
+    <t>강사명</t>
+  </si>
+  <si>
+    <t>인원</t>
+  </si>
+  <si>
+    <t>22반</t>
+  </si>
+  <si>
+    <t>안소영</t>
+  </si>
+  <si>
+    <t>23반</t>
+  </si>
+  <si>
+    <t>이지민</t>
+  </si>
+  <si>
+    <t>24반</t>
+  </si>
+  <si>
+    <t>최정윤</t>
+  </si>
+  <si>
+    <t>25반</t>
+  </si>
+  <si>
+    <t>조지은</t>
   </si>
 </sst>
 </file>
@@ -88,6 +265,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -106,23 +290,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F1F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEE1CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -137,19 +326,10 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -162,7 +342,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -179,7 +359,74 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -203,30 +450,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,124 +806,541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AC77DD-6C0F-403A-96B1-048BDDCF1F9C}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF52784-A058-4C82-8CC0-A6B0344CD688}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="10">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="10">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="10">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="10">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="D22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>